--- a/Documentation Source/source/BOMs/hardware bom.xlsx
+++ b/Documentation Source/source/BOMs/hardware bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15868BE8-EB51-3348-8942-140399294F90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E07EE8-4EBD-F944-B9EC-A559B0768382}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24000" yWindow="13500" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>link</t>
   </si>
@@ -166,9 +171,6 @@
     <t>https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Qty for # of pumps</t>
   </si>
   <si>
@@ -262,9 +264,6 @@
     <t>Flanged ball bearing</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Flanged LMF8UU slide bearing</t>
   </si>
   <si>
@@ -280,7 +279,13 @@
     <t>3501-0804-0350</t>
   </si>
   <si>
-    <t>`</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -536,7 +541,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BOM!$L$25:$L$35</c:f>
+              <c:f>BOM!$L$4:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -578,7 +583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BOM!$N$25:$N$35</c:f>
+              <c:f>BOM!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1487,13 +1492,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1787,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,10 +1845,10 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1851,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6">
         <v>31.84</v>
@@ -1864,16 +1869,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="7">
-        <f>A2*BOM!$L$23</f>
+        <f>A2*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J2" s="7">
@@ -1881,9 +1886,28 @@
         <v>5</v>
       </c>
       <c r="K2" s="1">
-        <f>J2*C2/BOM!$L$23</f>
+        <f>J2*C2/BOM!$L$2</f>
         <v>31.839999999999996</v>
       </c>
+      <c r="L2" s="12">
+        <v>5</v>
+      </c>
+      <c r="M2" s="11">
+        <f>SUMPRODUCT(BOM!J2:J20,BOM!C2:C20)</f>
+        <v>573.77</v>
+      </c>
+      <c r="N2" s="11">
+        <f>M2/L2</f>
+        <v>114.75399999999999</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1909,7 +1933,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="7">
-        <f>A3*BOM!$L$23</f>
+        <f>A3*BOM!$L$2</f>
         <v>10</v>
       </c>
       <c r="J3" s="7">
@@ -1917,16 +1941,24 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <f>J3*C3/BOM!$L$23</f>
+        <f>J3*C3/BOM!$L$2</f>
         <v>2.1040000000000001</v>
       </c>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6">
         <v>7.97</v>
@@ -1936,16 +1968,16 @@
         <v>`7804K147 &lt;https://www.mcmaster.com/#7804K147&gt;`_</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <f>A4*BOM!$L$23</f>
+        <f>A4*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J4" s="7">
@@ -1953,16 +1985,34 @@
         <v>5</v>
       </c>
       <c r="K4" s="1">
-        <f>J4*C4/BOM!$L$23</f>
+        <f>J4*C4/BOM!$L$2</f>
         <v>7.9700000000000006</v>
       </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>235.84</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N13" si="2">M4/L4</f>
+        <v>235.84</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6">
         <v>4.4000000000000004</v>
@@ -1981,17 +2031,32 @@
         <v>100</v>
       </c>
       <c r="I5" s="7">
-        <f>A5*BOM!$L$23</f>
+        <f>A5*BOM!$L$2</f>
         <v>20</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J20" si="2">ROUNDUP(I5/H5,0)</f>
+        <f t="shared" ref="J5:J20" si="3">ROUNDUP(I5/H5,0)</f>
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <f>J5*C5/BOM!$L$23</f>
+        <f>J5*C5/BOM!$L$2</f>
         <v>0.88000000000000012</v>
       </c>
+      <c r="L5" s="13">
+        <v>2</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -2017,24 +2082,39 @@
         <v>100</v>
       </c>
       <c r="I6" s="7">
-        <f>A6*BOM!$L$23</f>
+        <f>A6*BOM!$L$2</f>
         <v>20</v>
       </c>
       <c r="J6" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <f>J6*C6/BOM!$L$2</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <f>J6*C6/BOM!$L$23</f>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6">
         <v>3.36</v>
@@ -2044,33 +2124,48 @@
         <v>`92005A130 &lt;https://www.mcmaster.com/#92005A130&gt;`_</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7" s="7">
-        <f>A7*BOM!$L$23</f>
+        <f>A7*BOM!$L$2</f>
         <v>20</v>
       </c>
       <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>J7*C7/BOM!$L$2</f>
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="L7" s="13">
+        <v>4</v>
+      </c>
+      <c r="N7" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <f>J7*C7/BOM!$L$23</f>
-        <v>0.67199999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6">
         <v>3.88</v>
@@ -2080,33 +2175,51 @@
         <v>`92005A132 &lt;https://www.mcmaster.com/#92005A132&gt;`_</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
       <c r="I8" s="7">
-        <f>A8*BOM!$L$23</f>
+        <f>A8*BOM!$L$2</f>
         <v>20</v>
       </c>
       <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8*C8/BOM!$L$2</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="L8" s="13">
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <v>625.77</v>
+      </c>
+      <c r="N8" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <f>J8*C8/BOM!$L$23</f>
-        <v>0.77600000000000002</v>
-      </c>
+        <v>125.154</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6">
         <v>4.7</v>
@@ -2125,24 +2238,39 @@
         <v>100</v>
       </c>
       <c r="I9" s="7">
-        <f>A9*BOM!$L$23</f>
-        <v>70</v>
+        <f>A9*BOM!$L$2</f>
+        <v>80</v>
       </c>
       <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <f>J9*C9/BOM!$L$2</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="L9" s="13">
+        <v>6</v>
+      </c>
+      <c r="N9" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <f>J9*C9/BOM!$L$23</f>
-        <v>0.94000000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6">
         <v>7.2</v>
@@ -2161,24 +2289,39 @@
         <v>50</v>
       </c>
       <c r="I10" s="7">
-        <f>A10*BOM!$L$23</f>
-        <v>50</v>
+        <f>A10*BOM!$L$2</f>
+        <v>100</v>
       </c>
       <c r="J10" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <f>J10*C10/BOM!$L$2</f>
+        <v>2.88</v>
+      </c>
+      <c r="L10" s="13">
+        <v>7</v>
+      </c>
+      <c r="N10" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <f>J10*C10/BOM!$L$23</f>
-        <v>1.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6">
         <v>10.51</v>
@@ -2188,26 +2331,41 @@
         <v>`9657K267 &lt;https://www.mcmaster.com/#9657K267&gt;`_</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1">
         <v>12</v>
       </c>
       <c r="I11" s="7">
-        <f>A11*BOM!$L$23</f>
+        <f>A11*BOM!$L$2</f>
         <v>20</v>
       </c>
       <c r="J11" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <f>J11*C11/BOM!$L$2</f>
+        <v>4.2039999999999997</v>
+      </c>
+      <c r="L11" s="13">
+        <v>8</v>
+      </c>
+      <c r="N11" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <f>J11*C11/BOM!$L$23</f>
-        <v>4.2039999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2233,28 +2391,43 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <f>A12*BOM!$L$23</f>
+        <f>A12*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <f>J12*C12/BOM!$L$2</f>
+        <v>5.33</v>
+      </c>
+      <c r="L12" s="13">
+        <v>9</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K12" s="1">
-        <f>J12*C12/BOM!$L$23</f>
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
       <c r="X12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2262,20 +2435,20 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6">
         <v>7.99</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13:D17" si="3">CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
+        <f t="shared" ref="D13:D17" si="4">CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
         <v>`3501-0804-0350 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>22</v>
@@ -2284,19 +2457,37 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <f>A13*BOM!$L$23</f>
+        <f>A13*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J13" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <f>J13*C13/BOM!$L$2</f>
+        <v>7.99</v>
+      </c>
+      <c r="L13" s="13">
+        <v>10</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1115.8699999999999</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K13" s="1">
-        <f>J13*C13/BOM!$L$23</f>
-        <v>7.99</v>
-      </c>
+        <v>111.58699999999999</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
       <c r="W13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X13" s="1">
         <v>86.9</v>
@@ -2322,7 +2513,7 @@
         <v>7.99</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
       </c>
       <c r="F14" s="1">
@@ -2335,19 +2526,30 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <f>A14*BOM!$L$23</f>
+        <f>A14*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K14" s="1">
-        <f>J14*C14/BOM!$L$23</f>
+        <f>J14*C14/BOM!$L$2</f>
         <v>7.99</v>
       </c>
+      <c r="L14" s="13">
+        <v>11</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
       <c r="W14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" s="1">
         <v>105.3</v>
@@ -2373,7 +2575,7 @@
         <v>3.49</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
       </c>
       <c r="F15" s="1">
@@ -2386,19 +2588,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <f>A15*BOM!$L$23</f>
+        <f>A15*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K15" s="1">
-        <f>J15*C15/BOM!$L$23</f>
+        <f>J15*C15/BOM!$L$2</f>
         <v>3.4900000000000007</v>
       </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
       <c r="W15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X15" s="10">
         <v>110.8</v>
@@ -2424,7 +2634,7 @@
         <v>7.99</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2440,19 +2650,27 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <f>A16*BOM!$L$23</f>
+        <f>A16*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="K16" s="1">
-        <f>J16*C16/BOM!$L$23</f>
+        <f>J16*C16/BOM!$L$2</f>
         <v>4.7939999999999996</v>
       </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
       <c r="W16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X16" s="1">
         <v>152.4</v>
@@ -2467,25 +2685,25 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="6">
         <v>7.11</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>`B00NQ2H8YUF17 &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/d&gt;`_</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2494,26 +2712,39 @@
         <v>1</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f>J17*C17/BOM!$L$23</f>
+        <f>J17*C17/BOM!$L$2</f>
         <v>1.4220000000000002</v>
       </c>
+      <c r="L17" s="14"/>
+      <c r="N17" s="11">
+        <f>N4-N13</f>
+        <v>124.25300000000001</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6">
         <v>14.31</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" ref="D18:D19" si="4">CONCATENATE("`",F18," &lt;",G18,"&gt;`_")</f>
+        <f t="shared" ref="D18:D19" si="5">CONCATENATE("`",F18," &lt;",G18,"&gt;`_")</f>
         <v>`SJ5746-0-ND &lt;https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456&gt;`_</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2529,30 +2760,30 @@
         <v>144</v>
       </c>
       <c r="I18" s="7">
-        <f>A18*BOM!$L$23</f>
-        <v>20</v>
+        <f>A18*BOM!$L$2</f>
+        <v>40</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f>J18*C18/BOM!$L$23</f>
+        <f>J18*C18/BOM!$L$2</f>
         <v>2.8620000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6">
         <v>4.1100000000000003</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>`255-5122-ND &lt;https://www.digikey.com/products/en?keywords=255-5122-nd&gt;`_</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2565,24 +2796,24 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <f>A19*BOM!$L$23</f>
+        <f>A19*BOM!$L$2</f>
         <v>10</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K19" s="1">
-        <f>J19*C19/BOM!$L$23</f>
+        <f>J19*C19/BOM!$L$2</f>
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="6">
         <v>18.39</v>
@@ -2604,336 +2835,23 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <f>A20*BOM!$L$23</f>
+        <f>A20*BOM!$L$2</f>
         <v>5</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <f>J20*C20/BOM!$L$23</f>
+        <f>J20*C20/BOM!$L$2</f>
         <v>18.39</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L23" s="12">
-        <v>5</v>
-      </c>
-      <c r="M23" s="11">
-        <f>SUMPRODUCT(BOM!J2:J20,BOM!C2:C20)</f>
-        <v>566.56999999999994</v>
-      </c>
-      <c r="N23" s="11">
-        <f>M23/L23</f>
-        <v>113.31399999999999</v>
-      </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11">
-        <v>235.84</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" ref="N25:N34" si="5">M25/L25</f>
-        <v>235.84</v>
-      </c>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L26" s="13">
-        <v>2</v>
-      </c>
-      <c r="N26" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L27" s="13">
-        <v>3</v>
-      </c>
-      <c r="N27" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L28" s="13">
-        <v>4</v>
-      </c>
-      <c r="N28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L29" s="13">
-        <v>5</v>
-      </c>
-      <c r="M29" s="11">
-        <v>625.77</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="5"/>
-        <v>125.154</v>
-      </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L30" s="13">
-        <v>6</v>
-      </c>
-      <c r="N30" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L31" s="13">
-        <v>7</v>
-      </c>
-      <c r="N31" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L32" s="13">
-        <v>8</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L33" s="13">
-        <v>9</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-    </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L34" s="13">
-        <v>10</v>
-      </c>
-      <c r="M34" s="15">
-        <v>1115.8699999999999</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="5"/>
-        <v>111.58699999999999</v>
-      </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-    </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L35" s="13">
-        <v>11</v>
-      </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-    </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L38" s="14"/>
-      <c r="N38" s="11">
-        <f>N25-N34</f>
-        <v>124.25300000000001</v>
-      </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-    </row>
-    <row r="40" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-    </row>
-    <row r="41" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-    </row>
-    <row r="42" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A13:A15 A18:A19 A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A13:A15 A19 A16" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Documentation Source/source/BOMs/hardware bom.xlsx
+++ b/Documentation Source/source/BOMs/hardware bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E07EE8-4EBD-F944-B9EC-A559B0768382}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E68BA5-A1B1-CB45-9EB2-59C2F9294493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="13500" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,9 +43,6 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>5 mm to 8 mm coupler</t>
   </si>
   <si>
-    <t>B01M287GNY</t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
@@ -286,6 +281,12 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Befenybay-Coupling-Diameter-Coupler-Aluminum/dp/B07Q5Q3DCB/ref=sr_1_1?keywords=B07Q5Q3DCB&amp;qid=1565137893&amp;s=gateway&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>B07Q5Q3DCB</t>
   </si>
 </sst>
 </file>
@@ -575,9 +576,6 @@
                 <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -588,34 +586,34 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>235.84</c:v>
+                  <c:v>179.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>135.40999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>127.21000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>120.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>125.154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>117.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>114.23166666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>112.82874999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>111.80444444444443</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.58699999999999</c:v>
+                  <c:v>110.797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +928,396 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BOM!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BOM!$N$4:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>179.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.40999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.21000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125.154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114.23166666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112.82874999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111.80444444444443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9662-0942-8AD2-5C3FD2C511B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2061002319"/>
+        <c:axId val="2060863519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2061002319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060863519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2060863519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061002319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1486,6 +1873,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1521,6 +2424,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3F2A0F-EAEE-F941-87E7-2DA31A89A41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1794,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1803,7 +2742,7 @@
     <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="165.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.1640625" style="1" customWidth="1"/>
@@ -1821,34 +2760,34 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1856,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6">
         <v>31.84</v>
@@ -1866,39 +2805,39 @@
         <v>`4615T37 &lt;https://www.mcmaster.com/#4615T37&gt;`_</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="7">
         <f>A2*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" ref="J2:J4" si="1">ROUNDUP(I2/H2,0)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
         <f>J2*C2/BOM!$L$2</f>
         <v>31.839999999999996</v>
       </c>
       <c r="L2" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11">
         <f>SUMPRODUCT(BOM!J2:J20,BOM!C2:C20)</f>
-        <v>573.77</v>
+        <v>1090.97</v>
       </c>
       <c r="N2" s="11">
         <f>M2/L2</f>
-        <v>114.75399999999999</v>
+        <v>109.09700000000001</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -1914,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>10.52</v>
@@ -1924,17 +2863,17 @@
         <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>50</v>
       </c>
       <c r="I3" s="7">
         <f>A3*BOM!$L$2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" si="1"/>
@@ -1942,7 +2881,7 @@
       </c>
       <c r="K3" s="1">
         <f>J3*C3/BOM!$L$2</f>
-        <v>2.1040000000000001</v>
+        <v>1.052</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -1958,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="6">
         <v>7.97</v>
@@ -1968,21 +2907,21 @@
         <v>`7804K147 &lt;https://www.mcmaster.com/#7804K147&gt;`_</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="7">
         <f>A4*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1">
         <f>J4*C4/BOM!$L$2</f>
@@ -1992,11 +2931,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="11">
-        <v>235.84</v>
+        <v>179.60000000000002</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" ref="N4:N13" si="2">M4/L4</f>
-        <v>235.84</v>
+        <v>179.60000000000002</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -2009,10 +2947,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6">
         <v>4.4000000000000004</v>
@@ -2022,32 +2960,34 @@
         <v>`92005A220 &lt;https://www.mcmaster.com/#92005A226&gt;`_</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
       </c>
       <c r="I5" s="7">
         <f>A5*BOM!$L$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" ref="J5:J20" si="3">ROUNDUP(I5/H5,0)</f>
+        <f t="shared" ref="J5:J20" si="2">ROUNDUP(I5/H5,0)</f>
         <v>1</v>
       </c>
       <c r="K5" s="1">
         <f>J5*C5/BOM!$L$2</f>
-        <v>0.88000000000000012</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="L5" s="13">
         <v>2</v>
       </c>
+      <c r="M5" s="11">
+        <v>270.81999999999994</v>
+      </c>
       <c r="N5" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135.40999999999997</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -2060,10 +3000,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
@@ -2073,32 +3013,34 @@
         <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
       </c>
       <c r="I6" s="7">
         <f>A6*BOM!$L$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K6" s="1">
         <f>J6*C6/BOM!$L$2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="13">
         <v>3</v>
       </c>
+      <c r="M6" s="11">
+        <v>381.63000000000005</v>
+      </c>
       <c r="N6" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127.21000000000002</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -2111,10 +3053,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <v>3.36</v>
@@ -2124,32 +3066,34 @@
         <v>`92005A130 &lt;https://www.mcmaster.com/#92005A130&gt;`_</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7" s="7">
         <f>A7*BOM!$L$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K7" s="1">
         <f>J7*C7/BOM!$L$2</f>
-        <v>0.67199999999999993</v>
+        <v>0.33599999999999997</v>
       </c>
       <c r="L7" s="13">
         <v>4</v>
       </c>
+      <c r="M7" s="11">
+        <v>483.36</v>
+      </c>
       <c r="N7" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120.84</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -2162,10 +3106,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6">
         <v>3.88</v>
@@ -2175,25 +3119,25 @@
         <v>`92005A132 &lt;https://www.mcmaster.com/#92005A132&gt;`_</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
       <c r="I8" s="7">
         <f>A8*BOM!$L$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K8" s="1">
         <f>J8*C8/BOM!$L$2</f>
-        <v>0.77600000000000002</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="L8" s="13">
         <v>5</v>
@@ -2202,7 +3146,7 @@
         <v>625.77</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N8" si="3">M8/L8</f>
         <v>125.154</v>
       </c>
       <c r="O8"/>
@@ -2216,10 +3160,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6">
         <v>4.7</v>
@@ -2229,21 +3173,21 @@
         <v>`92000A120 &lt;https://www.mcmaster.com/#92000A120&gt;`_</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
       </c>
       <c r="I9" s="7">
         <f>A9*BOM!$L$2</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
         <f>J9*C9/BOM!$L$2</f>
@@ -2252,9 +3196,11 @@
       <c r="L9" s="13">
         <v>6</v>
       </c>
+      <c r="M9" s="11">
+        <v>586.97</v>
+      </c>
       <c r="N9" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>117.39400000000001</v>
       </c>
       <c r="O9"/>
       <c r="P9"/>
@@ -2267,10 +3213,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6">
         <v>7.2</v>
@@ -2280,21 +3226,21 @@
         <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
       <c r="I10" s="7">
         <f>A10*BOM!$L$2</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
         <f>J10*C10/BOM!$L$2</f>
@@ -2303,9 +3249,11 @@
       <c r="L10" s="13">
         <v>7</v>
       </c>
+      <c r="M10" s="11">
+        <v>685.3900000000001</v>
+      </c>
       <c r="N10" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114.23166666666668</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -2318,10 +3266,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6">
         <v>10.51</v>
@@ -2331,21 +3279,21 @@
         <v>`9657K267 &lt;https://www.mcmaster.com/#9657K267&gt;`_</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1">
         <v>12</v>
       </c>
       <c r="I11" s="7">
         <f>A11*BOM!$L$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="K11" s="1">
         <f>J11*C11/BOM!$L$2</f>
@@ -2354,9 +3302,11 @@
       <c r="L11" s="13">
         <v>8</v>
       </c>
+      <c r="M11" s="11">
+        <v>902.62999999999988</v>
+      </c>
       <c r="N11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>112.82874999999999</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -2369,10 +3319,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6">
         <v>5.33</v>
@@ -2382,21 +3332,21 @@
         <v>`6479K78 &lt;https://www.mcmaster.com/#6479K78&gt;`_</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
       </c>
       <c r="I12" s="7">
         <f>A12*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
         <f>J12*C12/BOM!$L$2</f>
@@ -2405,9 +3355,11 @@
       <c r="L12" s="13">
         <v>9</v>
       </c>
+      <c r="M12" s="11">
+        <v>1006.2399999999999</v>
+      </c>
       <c r="N12" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>111.80444444444443</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -2418,24 +3370,24 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="X12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="AA12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6">
         <v>7.99</v>
@@ -2445,24 +3397,24 @@
         <v>`3501-0804-0350 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="7">
         <f>A13*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K13" s="1">
         <f>J13*C13/BOM!$L$2</f>
@@ -2472,11 +3424,10 @@
         <v>10</v>
       </c>
       <c r="M13" s="15">
-        <v>1115.8699999999999</v>
+        <v>1107.97</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="2"/>
-        <v>111.58699999999999</v>
+        <v>110.797</v>
       </c>
       <c r="O13"/>
       <c r="P13"/>
@@ -2487,7 +3438,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X13" s="1">
         <v>86.9</v>
@@ -2504,10 +3455,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
         <v>7.99</v>
@@ -2520,25 +3471,22 @@
         <v>545315</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="7">
         <f>A14*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K14" s="1">
         <f>J14*C14/BOM!$L$2</f>
         <v>7.99</v>
-      </c>
-      <c r="L14" s="13">
-        <v>11</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -2549,7 +3497,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X14" s="1">
         <v>105.3</v>
@@ -2566,10 +3514,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
         <v>3.49</v>
@@ -2582,18 +3530,18 @@
         <v>634310</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="7">
         <f>A15*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
         <f>J15*C15/BOM!$L$2</f>
@@ -2608,7 +3556,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X15" s="10">
         <v>110.8</v>
@@ -2628,38 +3576,38 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6">
-        <v>7.99</v>
+        <v>8.99</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>`B01M287GNY &lt;https://www.amazon.com/RepRap-Champion-Coupler-Routers-printers/dp/B01M287GNY/ref=sr_1_12?ie=UTF8&amp;qid=1488495177&amp;sr=8-12&amp;keywords=5+to+8mm+coupler&gt;`_</v>
+        <v>`B07Q5Q3DCB &lt;https://www.amazon.com/Befenybay-Coupling-Diameter-Coupler-Aluminum/dp/B07Q5Q3DCB/ref=sr_1_1?keywords=B07Q5Q3DCB&amp;qid=1565137893&amp;s=gateway&amp;sr=8-1&gt;`_</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="7">
         <f>A16*BOM!$L$2</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
         <v>5</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
       <c r="K16" s="1">
         <f>J16*C16/BOM!$L$2</f>
-        <v>4.7939999999999996</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="O16"/>
       <c r="P16"/>
@@ -2670,7 +3618,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X16" s="1">
         <v>152.4</v>
@@ -2687,10 +3635,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6">
         <v>7.11</v>
@@ -2700,10 +3648,10 @@
         <v>`B00NQ2H8YUF17 &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/d&gt;`_</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -2712,17 +3660,17 @@
         <v>1</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K17" s="1">
         <f>J17*C17/BOM!$L$2</f>
-        <v>1.4220000000000002</v>
+        <v>0.71100000000000008</v>
       </c>
       <c r="L17" s="14"/>
       <c r="N17" s="11">
         <f>N4-N13</f>
-        <v>124.25300000000001</v>
+        <v>68.803000000000026</v>
       </c>
       <c r="O17"/>
       <c r="P17"/>
@@ -2735,10 +3683,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6">
         <v>14.31</v>
@@ -2748,36 +3696,36 @@
         <v>`SJ5746-0-ND &lt;https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456&gt;`_</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1">
         <v>144</v>
       </c>
       <c r="I18" s="7">
         <f>A18*BOM!$L$2</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K18" s="1">
         <f>J18*C18/BOM!$L$2</f>
-        <v>2.8620000000000001</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>4.1100000000000003</v>
@@ -2787,21 +3735,21 @@
         <v>`255-5122-ND &lt;https://www.digikey.com/products/en?keywords=255-5122-nd&gt;`_</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="7">
         <f>A19*BOM!$L$2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="K19" s="1">
         <f>J19*C19/BOM!$L$2</f>
@@ -2810,10 +3758,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="6">
         <v>18.39</v>
@@ -2823,24 +3771,24 @@
         <v>`17HS24-0644S &lt;https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s&gt;`_</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="7">
         <f>A20*BOM!$L$2</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K20" s="1">
         <f>J20*C20/BOM!$L$2</f>

--- a/Documentation Source/source/BOMs/hardware bom.xlsx
+++ b/Documentation Source/source/BOMs/hardware bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E68BA5-A1B1-CB45-9EB2-59C2F9294493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB7ED5-C2B7-DD42-9A0D-23FC124AF9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -265,9 +267,6 @@
     <t>B00NQ2H8YUF17</t>
   </si>
   <si>
-    <t>https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/d</t>
-  </si>
-  <si>
     <t xml:space="preserve">350 x 8mm lead screw </t>
   </si>
   <si>
@@ -287,6 +286,9 @@
   </si>
   <si>
     <t>B07Q5Q3DCB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/s?k=LMF8UU&amp;ref=nb_sb_noss_2</t>
   </si>
 </sst>
 </file>
@@ -2733,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3160,7 +3162,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
@@ -3213,7 +3215,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>68</v>
@@ -3387,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="6">
         <v>7.99</v>
@@ -3400,7 +3402,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
@@ -3589,10 +3591,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -3645,13 +3647,13 @@
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>`B00NQ2H8YUF17 &lt;https://www.amazon.com/uxcell-LMF8UU-Inside-Flange-Bearing/d&gt;`_</v>
+        <v>`B00NQ2H8YUF17 &lt;https://www.amazon.com/s?k=LMF8UU&amp;ref=nb_sb_noss_2&gt;`_</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -3683,7 +3685,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>

--- a/Documentation Source/source/BOMs/hardware bom.xlsx
+++ b/Documentation Source/source/BOMs/hardware bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lustiga/Dropbox (HHMI)/Code/karpova_lab/Syringe/Documentation Source/source/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB7ED5-C2B7-DD42-9A0D-23FC124AF9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAD3BAA-E360-AD4E-A361-6265B83EB9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>link</t>
   </si>
@@ -135,12 +135,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>SJ5746-0-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -246,12 +240,6 @@
     <t>M3 Threaded insert</t>
   </si>
   <si>
-    <t>Bumper</t>
-  </si>
-  <si>
-    <t>Limit switch</t>
-  </si>
-  <si>
     <t>Nema 17 bipolar 60Ncm 200steps</t>
   </si>
   <si>
@@ -273,15 +261,6 @@
     <t>3501-0804-0350</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Befenybay-Coupling-Diameter-Coupler-Aluminum/dp/B07Q5Q3DCB/ref=sr_1_1?keywords=B07Q5Q3DCB&amp;qid=1565137893&amp;s=gateway&amp;sr=8-1</t>
   </si>
   <si>
@@ -289,6 +268,24 @@
   </si>
   <si>
     <t>https://www.amazon.com/s?k=LMF8UU&amp;ref=nb_sb_noss_2</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en?keywords=277-2296-nd</t>
+  </si>
+  <si>
+    <t>277-2296-ND</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>DIN clip</t>
   </si>
 </sst>
 </file>
@@ -300,7 +297,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#\ &quot;Assemblies&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2735,19 +2732,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="165.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="165.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -2760,7 +2757,7 @@
     <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2768,52 +2765,52 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="6">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C12" si="0">CONCATENATE("`",E2," &lt;",F2,"&gt;`_")</f>
+        <v>`4615T37 &lt;https://www.mcmaster.com/#4615T37&gt;`_</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="6">
         <v>31.84</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D12" si="0">CONCATENATE("`",F2," &lt;",G2,"&gt;`_")</f>
-        <v>`4615T37 &lt;https://www.mcmaster.com/#4615T37&gt;`_</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -2827,19 +2824,19 @@
         <v>10</v>
       </c>
       <c r="K2" s="1">
-        <f>J2*C2/BOM!$L$2</f>
+        <f>J2*G2/BOM!$L$2</f>
         <v>31.839999999999996</v>
       </c>
       <c r="L2" s="12">
         <v>10</v>
       </c>
       <c r="M2" s="11">
-        <f>SUMPRODUCT(BOM!J2:J20,BOM!C2:C20)</f>
-        <v>1090.97</v>
+        <f>SUMPRODUCT(BOM!J2:J20,BOM!G2:G20)</f>
+        <v>1032.0099999999998</v>
       </c>
       <c r="N2" s="11">
         <f>M2/L2</f>
-        <v>109.09700000000001</v>
+        <v>103.20099999999998</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -2850,25 +2847,25 @@
       <c r="U2"/>
       <c r="V2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
-        <v>10.52</v>
-      </c>
-      <c r="D3" s="1" t="str">
+      <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`9600k54 &lt;https://www.mcmaster.com/#9600k54&gt;`_</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" s="6">
+        <v>10.52</v>
       </c>
       <c r="H3" s="1">
         <v>50</v>
@@ -2882,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <f>J3*C3/BOM!$L$2</f>
+        <f>J3*G3/BOM!$L$2</f>
         <v>1.052</v>
       </c>
       <c r="O3"/>
@@ -2894,25 +2891,25 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="6">
-        <v>7.97</v>
-      </c>
-      <c r="D4" s="1" t="str">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`7804K147 &lt;https://www.mcmaster.com/#7804K147&gt;`_</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.97</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2926,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="1">
-        <f>J4*C4/BOM!$L$2</f>
+        <f>J4*G4/BOM!$L$2</f>
         <v>7.9700000000000006</v>
       </c>
       <c r="L4" s="13">
@@ -2947,25 +2944,25 @@
       <c r="U4"/>
       <c r="V4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D5" s="1" t="str">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`92005A220 &lt;https://www.mcmaster.com/#92005A226&gt;`_</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.4000000000000004</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
@@ -2979,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1">
-        <f>J5*C5/BOM!$L$2</f>
+        <f>J5*G5/BOM!$L$2</f>
         <v>0.44000000000000006</v>
       </c>
       <c r="L5" s="13">
@@ -3000,25 +2997,25 @@
       <c r="U5"/>
       <c r="V5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="str">
+      <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`96887A329 &lt;https://www.mcmaster.com/#96887A329&gt;`_</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -3032,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <f>J6*C6/BOM!$L$2</f>
+        <f>J6*G6/BOM!$L$2</f>
         <v>1</v>
       </c>
       <c r="L6" s="13">
@@ -3053,25 +3050,25 @@
       <c r="U6"/>
       <c r="V6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3.36</v>
-      </c>
-      <c r="D7" s="1" t="str">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`92005A130 &lt;https://www.mcmaster.com/#92005A130&gt;`_</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.36</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
@@ -3085,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <f>J7*C7/BOM!$L$2</f>
+        <f>J7*G7/BOM!$L$2</f>
         <v>0.33599999999999997</v>
       </c>
       <c r="L7" s="13">
@@ -3106,25 +3103,25 @@
       <c r="U7"/>
       <c r="V7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3.88</v>
-      </c>
-      <c r="D8" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`92005A132 &lt;https://www.mcmaster.com/#92005A132&gt;`_</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.88</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
@@ -3138,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <f>J8*C8/BOM!$L$2</f>
+        <f>J8*G8/BOM!$L$2</f>
         <v>0.38800000000000001</v>
       </c>
       <c r="L8" s="13">
@@ -3160,40 +3157,40 @@
       <c r="U8"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="D9" s="1" t="str">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`92000A120 &lt;https://www.mcmaster.com/#92000A120&gt;`_</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4.7</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
       </c>
       <c r="I9" s="7">
         <f>A9*BOM!$L$2</f>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <f>J9*C9/BOM!$L$2</f>
-        <v>0.94000000000000006</v>
+        <f>J9*G9/BOM!$L$2</f>
+        <v>1.4100000000000001</v>
       </c>
       <c r="L9" s="13">
         <v>6</v>
@@ -3213,39 +3210,39 @@
       <c r="U9"/>
       <c r="V9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D10" s="1" t="str">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`94510A240 &lt;https://www.mcmaster.com/#94510A240&gt;`_</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7.2</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>
       </c>
       <c r="I10" s="7">
         <f>A10*BOM!$L$2</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K10" s="1">
-        <f>J10*C10/BOM!$L$2</f>
+        <f>J10*G10/BOM!$L$2</f>
         <v>2.88</v>
       </c>
       <c r="L10" s="13">
@@ -3266,25 +3263,25 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10.51</v>
-      </c>
-      <c r="D11" s="1" t="str">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`9657K267 &lt;https://www.mcmaster.com/#9657K267&gt;`_</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10.51</v>
       </c>
       <c r="H11" s="1">
         <v>12</v>
@@ -3298,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="1">
-        <f>J11*C11/BOM!$L$2</f>
+        <f>J11*G11/BOM!$L$2</f>
         <v>4.2039999999999997</v>
       </c>
       <c r="L11" s="13">
@@ -3319,25 +3316,25 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5.33</v>
-      </c>
-      <c r="D12" s="1" t="str">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>`6479K78 &lt;https://www.mcmaster.com/#6479K78&gt;`_</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5.33</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -3351,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f>J12*C12/BOM!$L$2</f>
+        <f>J12*G12/BOM!$L$2</f>
         <v>5.33</v>
       </c>
       <c r="L12" s="13">
@@ -3372,40 +3369,40 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="X12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="AA12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="6">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" ref="C13:C19" si="4">CONCATENATE("`",E13," &lt;",F13,"&gt;`_")</f>
+        <v>`3501-0804-0350 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6">
         <v>7.99</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13:D17" si="4">CONCATENATE("`",F13," &lt;",G13,"&gt;`_")</f>
-        <v>`3501-0804-0350 &lt;https://www.servocity.com/lead-screws#371=448&gt;`_</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -3419,7 +3416,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="1">
-        <f>J13*C13/BOM!$L$2</f>
+        <f>J13*G13/BOM!$L$2</f>
         <v>7.99</v>
       </c>
       <c r="L13" s="13">
@@ -3440,7 +3437,7 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X13" s="1">
         <v>86.9</v>
@@ -3455,25 +3452,25 @@
         <v>30.22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
-        <v>7.99</v>
-      </c>
-      <c r="D14" s="1" t="str">
+      <c r="C14" s="1" t="str">
         <f t="shared" si="4"/>
         <v>`545315 &lt;https://www.servocity.com/8mm-4-start-hub&gt;`_</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
         <v>545315</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7.99</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -3487,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="1">
-        <f>J14*C14/BOM!$L$2</f>
+        <f>J14*G14/BOM!$L$2</f>
         <v>7.99</v>
       </c>
       <c r="O14"/>
@@ -3499,7 +3496,7 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X14" s="1">
         <v>105.3</v>
@@ -3514,25 +3511,25 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6">
-        <v>3.49</v>
-      </c>
-      <c r="D15" s="1" t="str">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>`634310 &lt;https://www.servocity.com/8mm-stainless-steel-precision-shafting#371=460&gt;`_</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
         <v>634310</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3.49</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -3546,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="1">
-        <f>J15*C15/BOM!$L$2</f>
+        <f>J15*G15/BOM!$L$2</f>
         <v>3.4900000000000007</v>
       </c>
       <c r="O15"/>
@@ -3558,7 +3555,7 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X15" s="10">
         <v>110.8</v>
@@ -3573,28 +3570,28 @@
         <v>45.56</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16" s="3">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
-        <v>8.99</v>
-      </c>
-      <c r="D16" s="1" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>`B07Q5Q3DCB &lt;https://www.amazon.com/Befenybay-Coupling-Diameter-Coupler-Aluminum/dp/B07Q5Q3DCB/ref=sr_1_1?keywords=B07Q5Q3DCB&amp;qid=1565137893&amp;s=gateway&amp;sr=8-1&gt;`_</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8.99</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -3608,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="1">
-        <f>J16*C16/BOM!$L$2</f>
+        <f>J16*G16/BOM!$L$2</f>
         <v>4.4950000000000001</v>
       </c>
       <c r="O16"/>
@@ -3620,7 +3617,7 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X16" s="1">
         <v>152.4</v>
@@ -3635,25 +3632,25 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="6">
-        <v>7.11</v>
-      </c>
-      <c r="D17" s="1" t="str">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>`B00NQ2H8YUF17 &lt;https://www.amazon.com/s?k=LMF8UU&amp;ref=nb_sb_noss_2&gt;`_</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="G17" s="6">
+        <v>7.11</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -3666,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f>J17*C17/BOM!$L$2</f>
+        <f>J17*G17/BOM!$L$2</f>
         <v>0.71100000000000008</v>
       </c>
       <c r="L17" s="14"/>
@@ -3683,64 +3680,64 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="6">
-        <v>14.31</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ref="D18:D19" si="5">CONCATENATE("`",F18," &lt;",G18,"&gt;`_")</f>
-        <v>`SJ5746-0-ND &lt;https://www.digikey.com/product-detail/en/3m/SJ61A1/SJ5746-0-ND/1768456&gt;`_</v>
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>`255-5122-ND &lt;https://www.digikey.com/products/en?keywords=255-5122-nd&gt;`_</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.05</v>
       </c>
       <c r="H18" s="1">
         <v>144</v>
       </c>
       <c r="I18" s="7">
         <f>A18*BOM!$L$2</f>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <f>J18*C18/BOM!$L$2</f>
-        <v>1.431</v>
+        <f>J18*G18/BOM!$L$2</f>
+        <v>0.505</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="6">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>`255-5122-ND &lt;https://www.digikey.com/products/en?keywords=255-5122-nd&gt;`_</v>
+        <v>82</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>`277-2296-ND &lt;https://www.digikey.com/products/en?keywords=277-2296-nd&gt;`_</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.39</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -3754,32 +3751,32 @@
         <v>20</v>
       </c>
       <c r="K19" s="1">
-        <f>J19*C19/BOM!$L$2</f>
-        <v>8.2200000000000006</v>
+        <f>J19*G19/BOM!$L$2</f>
+        <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>CONCATENATE("`",E20," &lt;",F20,"&gt;`_")</f>
+        <v>`17HS24-0644S &lt;https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s&gt;`_</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6">
         <v>18.39</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f>CONCATENATE("`",F20," &lt;",G20,"&gt;`_")</f>
-        <v>`17HS24-0644S &lt;https://www.omc-stepperonline.com/hybrid-stepper-motor/nema-17-bipolar-18deg-60ncm-85ozin-064a-10v-42x42x60mm-4-wires-17hs24-0644s.html?search=17hs24-0644s&gt;`_</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -3793,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="1">
-        <f>J20*C20/BOM!$L$2</f>
+        <f>J20*G20/BOM!$L$2</f>
         <v>18.39</v>
       </c>
     </row>
@@ -3801,7 +3798,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A13:A15 A19 A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A13:A15 A16" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3815,7 +3812,7 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
